--- a/Hindi Movies.xlsx
+++ b/Hindi Movies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\The Vault\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="2021-08-04_10-43-04" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>Size</t>
   </si>
@@ -75,76 +75,151 @@
     <t>BHD</t>
   </si>
   <si>
-    <t xml:space="preserve">36 China Town (2006) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All The Best (2009) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhool Bhulaiyaa (2007) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commando (2013) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De Dana Dan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhol (2007) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhoom (2004) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhoom 2 (2006) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dream Girl (2019) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ek Villain (2014) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Force (2011) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabbar Is Back (2015) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go Goa Gone (2013) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Masti (2013) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hera Pheri (2000) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungama (2003) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kick (2014) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lage Raho Munna Bhai (2006) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phir Hera Pheri (2006) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Race (2008) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rang De Basanti (2006) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocky Handsome (2016) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumbbad (2018) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicky Donor (2012) </t>
+    <t>2.2 GB</t>
+  </si>
+  <si>
+    <t>704.2 MB</t>
+  </si>
+  <si>
+    <t>1.3 GB</t>
+  </si>
+  <si>
+    <t>899 MB</t>
+  </si>
+  <si>
+    <t>3.0 GB</t>
+  </si>
+  <si>
+    <t>1 GB</t>
+  </si>
+  <si>
+    <t>950 MB</t>
+  </si>
+  <si>
+    <t>2.6 GB</t>
+  </si>
+  <si>
+    <t>1.4 GB</t>
+  </si>
+  <si>
+    <t>700 MB</t>
+  </si>
+  <si>
+    <t>849 MB</t>
+  </si>
+  <si>
+    <t>1.7 GB</t>
+  </si>
+  <si>
+    <t>2.5 GB</t>
+  </si>
+  <si>
+    <t>3.3 GB</t>
+  </si>
+  <si>
+    <t>968 MB</t>
+  </si>
+  <si>
+    <t>784 MB</t>
+  </si>
+  <si>
+    <t>961 MB</t>
+  </si>
+  <si>
+    <t>1.1 GB</t>
+  </si>
+  <si>
+    <t>3 GB</t>
+  </si>
+  <si>
+    <t>2.9 GB</t>
+  </si>
+  <si>
+    <t>749 MB</t>
+  </si>
+  <si>
+    <t>1.2 GB</t>
+  </si>
+  <si>
+    <t>1.9 GB</t>
+  </si>
+  <si>
+    <t>2.1 GB</t>
+  </si>
+  <si>
+    <t>1.0 GB</t>
+  </si>
+  <si>
+    <t>36 China Town (2006)</t>
+  </si>
+  <si>
+    <t>All The Best (2009)</t>
+  </si>
+  <si>
+    <t>Bhool Bhulaiyaa (2007)</t>
+  </si>
+  <si>
+    <t>Commando (2013)</t>
+  </si>
+  <si>
+    <t>De Dana Dan</t>
+  </si>
+  <si>
+    <t>Dhol (2007)</t>
+  </si>
+  <si>
+    <t>Dhoom (2004)</t>
+  </si>
+  <si>
+    <t>Dhoom 2 (2006)</t>
+  </si>
+  <si>
+    <t>Dream Girl (2019)</t>
+  </si>
+  <si>
+    <t>Ek Villain (2014)</t>
+  </si>
+  <si>
+    <t>Force (2011)</t>
+  </si>
+  <si>
+    <t>Gabbar Is Back (2015)</t>
+  </si>
+  <si>
+    <t>Go Goa Gone (2013)</t>
+  </si>
+  <si>
+    <t>Grand Masti (2013)</t>
+  </si>
+  <si>
+    <t>Hera Pheri (2000)</t>
+  </si>
+  <si>
+    <t>Hungama (2003)</t>
+  </si>
+  <si>
+    <t>Kick (2014)</t>
+  </si>
+  <si>
+    <t>Lage Raho Munna Bhai (2006)</t>
+  </si>
+  <si>
+    <t>Phir Hera Pheri (2006)</t>
+  </si>
+  <si>
+    <t>Race (2008)</t>
+  </si>
+  <si>
+    <t>Rang De Basanti (2006)</t>
+  </si>
+  <si>
+    <t>Rocky Handsome (2016)</t>
+  </si>
+  <si>
+    <t>Tumbbad (2018)</t>
+  </si>
+  <si>
+    <t>Vicky Donor (2012)</t>
   </si>
 </sst>
 </file>
@@ -206,19 +281,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E1" sqref="E1:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,33 +612,33 @@
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="45.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="5" max="5" width="28.77734375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.1838499158620799</v>
-      </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -570,11 +646,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -583,16 +659,16 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
-        <v>704.15082359313999</v>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -600,50 +676,50 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.3432132769376</v>
-      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5">
-        <v>899.26431560516403</v>
-      </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3.03125482238829</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -651,16 +727,16 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.99220162071287599</v>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -668,16 +744,16 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5">
-        <v>950.08034324645996</v>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -685,16 +761,16 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2.5801759883761402</v>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -702,16 +778,16 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.44565688911825</v>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -719,16 +795,16 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5">
-        <v>700.00501251220703</v>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -736,16 +812,16 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5">
-        <v>849.66673946380604</v>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -753,16 +829,16 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.6675672074779899</v>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -770,16 +846,16 @@
       <c r="D14" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2.5103831719607101</v>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -787,16 +863,16 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3.2934101307764601</v>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -804,16 +880,16 @@
       <c r="D16" t="s">
         <v>17</v>
       </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="5">
-        <v>968.46428680419899</v>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -821,16 +897,16 @@
       <c r="D17" t="s">
         <v>17</v>
       </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5">
-        <v>784.91748714446999</v>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -838,16 +914,16 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="5">
-        <v>961.69606781005905</v>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -855,16 +931,16 @@
       <c r="D19" t="s">
         <v>17</v>
       </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
-        <v>1.0746385212987699</v>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -872,16 +948,16 @@
       <c r="D20" t="s">
         <v>17</v>
       </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3.0963230580091499</v>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -889,16 +965,16 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5">
-        <v>950.830039978027</v>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -906,16 +982,16 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1.08339894190431</v>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -923,32 +999,32 @@
       <c r="D23" t="s">
         <v>17</v>
       </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="2">
-        <v>1.07015601266176</v>
-      </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
@@ -957,16 +1033,16 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2.9248060025274798</v>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -974,16 +1050,16 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="5">
-        <v>749.930112838745</v>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -991,16 +1067,16 @@
       <c r="D27" t="s">
         <v>17</v>
       </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1.20359657611698</v>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1008,15 +1084,15 @@
       <c r="D28" t="s">
         <v>17</v>
       </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
@@ -1025,16 +1101,16 @@
       <c r="D29" t="s">
         <v>17</v>
       </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1.9430075623095</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1042,16 +1118,16 @@
       <c r="D30" t="s">
         <v>17</v>
       </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2.0538567425683101</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1060,12 +1136,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="2">
-        <v>1.0029454678297001</v>
+      <c r="B32" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
